--- a/data/trans_dic/P27-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P27-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas</t>
+          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>49,82%</t>
+          <t>49,84%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>46,1%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52,33%</t>
+          <t>52,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>62,29%</t>
+          <t>54,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>64,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>64,09%</t>
+          <t>62,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>60,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>53,83%</t>
+          <t>54,42%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>58,49%</t>
+          <t>57,82%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>54,78%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>56,5%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>54,53%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,58; 56,27</t>
+          <t>39,1; 57,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,65; 52,64</t>
+          <t>36,34; 54,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,6; 59,74</t>
+          <t>39,47; 61,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56,99; 67,71</t>
+          <t>45,52; 68,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,81; 65,87</t>
+          <t>57,81; 70,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,3; 70,66</t>
+          <t>55,98; 69,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>51,78; 60,68</t>
+          <t>53,05; 67,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,0; 58,16</t>
+          <t>46,65; 61,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,68; 63,36</t>
+          <t>51,75; 63,21</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>48,77; 60,27</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>48,78; 62,44</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>48,46; 61,6</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,19%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>54,58%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,39%</t>
+          <t>55,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,65%</t>
+          <t>62,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>51,33%</t>
+          <t>66,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53,0%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>56,54%</t>
+          <t>52,56%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>54,06%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59,38%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42,96%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,78; 55,04</t>
+          <t>39,66; 58,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,05; 49,68</t>
+          <t>36,35; 54,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,4; 54,91</t>
+          <t>42,71; 60,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,22; 61,2</t>
+          <t>31,26; 49,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,74; 69,62</t>
+          <t>47,27; 62,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,56; 71,9</t>
+          <t>54,18; 68,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,32; 56,42</t>
+          <t>58,44; 73,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,3; 58,1</t>
+          <t>35,84; 54,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,2; 61,77</t>
+          <t>46,47; 59,14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>47,8; 59,23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>52,91; 65,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37,19; 50,02</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>44,33%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>51,3%</t>
+          <t>49,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>53,71%</t>
+          <t>66,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>62,18%</t>
+          <t>55,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>59,17%</t>
+          <t>61,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,9%</t>
+          <t>59,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52,92%</t>
+          <t>65,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,1%</t>
+          <t>62,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>56,61%</t>
+          <t>52,88%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>54,85%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>65,84%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>59,08%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,11; 60,75</t>
+          <t>18,49; 68,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,74; 64,38</t>
+          <t>22,69; 75,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,43; 69,48</t>
+          <t>42,94; 85,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,49; 72,82</t>
+          <t>31,54; 81,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,59; 70,15</t>
+          <t>44,88; 76,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,29; 71,12</t>
+          <t>42,16; 75,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>41,58; 62,87</t>
+          <t>47,93; 78,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>44,75; 64,3</t>
+          <t>44,74; 77,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,47; 66,87</t>
+          <t>31,58; 66,15</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>37,32; 68,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>52,46; 78,28</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>44,04; 74,95</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>48,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>53,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,18%</t>
+          <t>48,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>60,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>64,27%</t>
+          <t>62,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,07%</t>
+          <t>63,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,64%</t>
+          <t>51,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>55,16%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54,49%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>58,65%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>50,48%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,86; 52,92</t>
+          <t>41,16; 55,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,7; 50,16</t>
+          <t>39,51; 52,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,25; 55,57</t>
+          <t>45,64; 60,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,2; 63,04</t>
+          <t>41,74; 57,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,04; 65,48</t>
+          <t>55,62; 65,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,29; 68,9</t>
+          <t>57,15; 67,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,83; 57,08</t>
+          <t>58,13; 68,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,63; 56,83</t>
+          <t>46,07; 57,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,61; 60,9</t>
+          <t>50,92; 59,25</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>49,95; 58,57</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>54,03; 62,66</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45,66; 56,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido algún tipo de medicamentos en las últimas dos semanas (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>214337</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>166784</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>200069</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>281925</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>328566</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>264458</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>244445</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>304916</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>542903</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>431242</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>444513</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>586841</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>168150; 249314</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>133051; 198787</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>150304; 233205</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>234859; 355204</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>294134; 360197</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>235738; 291526</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>215334; 272445</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>261404; 344762</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>485860; 593490</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>383912; 474485</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>383783; 491226</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>521499; 662970</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>175785</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>143916</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>167070</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>162803</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>236642</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>211154</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>223397</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>199570</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>412427</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>355070</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>390467</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>362373</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>142526; 209832</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>115703; 174423</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>137787; 196735</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>128260; 201193</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>201048; 267896</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>183361; 233280</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>195785; 247752</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>155248; 233913</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>364702; 464091</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>313949; 388975</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>347954; 430268</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>313674; 421956</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>42501</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>39734</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>56870</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>66797</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>62674</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>48659</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>53837</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>69522</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>105175</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>88393</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>110707</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>136320</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18073; 66957</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18065; 60298</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36754; 73598</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37654; 97646</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45403; 77203</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>34385; 61637</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39567; 65100</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49821; 86436</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>62801; 131558</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>60144; 110259</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>88214; 131627</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>101622; 172957</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>407.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>432624</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>350434</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>424009</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>511525</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>627881</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>524271</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>521679</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>574009</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1060505</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>874704</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>945688</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1085533</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>365167; 488166</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>301873; 398258</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>360087; 478414</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>436452; 599898</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>575896; 678228</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>480633; 563539</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>478644; 560842</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>509046; 637504</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>978998; 1139136</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>801725; 940077</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>871127; 1010425</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>981907; 1208030</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
